--- a/data_files/human_PPSP_background.xlsx
+++ b/data_files/human_PPSP_background.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\Depot - dDAVP-time course - Kirby\BayesAnalysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kirbyleo/Box/Depot - dDAVP-time course - Kirby/Scripts/FinalDirectory/time_course_bayes/data_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E80765A5-C8A6-46A4-ABB2-175E6A377234}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32730DED-30FE-C241-89B8-5F837A1885C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{83A47321-0BB9-4D40-A555-19E073BEC23C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{83A47321-0BB9-4D40-A555-19E073BEC23C}"/>
   </bookViews>
   <sheets>
-    <sheet name="S-center" sheetId="1" r:id="rId1"/>
-    <sheet name="T-center" sheetId="2" r:id="rId2"/>
-    <sheet name="Y-center" sheetId="3" r:id="rId3"/>
+    <sheet name="README" sheetId="4" r:id="rId1"/>
+    <sheet name="S-center" sheetId="1" r:id="rId2"/>
+    <sheet name="T-center" sheetId="2" r:id="rId3"/>
+    <sheet name="Y-center" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="24">
   <si>
     <t>Position:</t>
   </si>
@@ -105,6 +106,11 @@
   <si>
     <t>J</t>
   </si>
+  <si>
+    <t>Data in the following tabs were derived from the Human PhosphoSite Plus background:
+Hornbeck PV, Zhang B, Murray B, Kornhauser JM, Latham V, Skrzypek E: PhosphoSitePlus, 2014: mutations, PTMs and recalibrations. Nucleic Acids Res 2015, 43:D512-520.
+Values were imported into position_weighting.py to serve as human reference probabilities in calculating Information Content scores.</t>
+  </si>
 </sst>
 </file>
 
@@ -138,10 +144,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -456,14 +468,124 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABB87757-E581-A749-AE2C-7EA9807589ED}">
+  <dimension ref="A1:G10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB848765-1A1A-47C2-B0CB-8B6F796F30D0}">
   <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -513,7 +635,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -563,7 +685,7 @@
         <v>6.89</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -613,7 +735,7 @@
         <v>1.37</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -663,7 +785,7 @@
         <v>5.33</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -713,7 +835,7 @@
         <v>7.74</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -763,7 +885,7 @@
         <v>2.59</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -813,7 +935,7 @@
         <v>6.69</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -863,7 +985,7 @@
         <v>2.2599999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -913,7 +1035,7 @@
         <v>3.29</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -963,7 +1085,7 @@
         <v>7.13</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -1013,7 +1135,7 @@
         <v>7.99</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -1063,7 +1185,7 @@
         <v>1.65</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -1113,7 +1235,7 @@
         <v>3.27</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -1163,7 +1285,7 @@
         <v>7.41</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -1213,7 +1335,7 @@
         <v>4.42</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -1263,7 +1385,7 @@
         <v>7.18</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -1313,7 +1435,7 @@
         <v>11.57</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -1363,7 +1485,7 @@
         <v>5.54</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -1413,7 +1535,7 @@
         <v>4.9800000000000004</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
@@ -1463,7 +1585,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
@@ -1513,7 +1635,7 @@
         <v>1.97</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
@@ -1563,7 +1685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
@@ -1618,7 +1740,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D673B41E-31F5-4914-A0E0-A27B956EBC61}">
   <dimension ref="A1:P23"/>
   <sheetViews>
@@ -1626,9 +1748,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1678,7 +1800,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1728,7 +1850,7 @@
         <v>6.58</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1778,7 +1900,7 @@
         <v>6.03</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1828,7 +1950,7 @@
         <v>4.51</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -1878,7 +2000,7 @@
         <v>7.02</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1928,7 +2050,7 @@
         <v>2.87</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -1978,7 +2100,7 @@
         <v>6.08</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -2028,7 +2150,7 @@
         <v>2.12</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -2078,7 +2200,7 @@
         <v>3.64</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -2128,7 +2250,7 @@
         <v>6.93</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -2178,7 +2300,7 @@
         <v>8.09</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -2228,7 +2350,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -2278,7 +2400,7 @@
         <v>3.29</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -2328,7 +2450,7 @@
         <v>6.68</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -2378,7 +2500,7 @@
         <v>4.04</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -2428,7 +2550,7 @@
         <v>6.37</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -2478,7 +2600,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -2528,7 +2650,7 @@
         <v>5.71</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -2578,7 +2700,7 @@
         <v>5.03</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
@@ -2628,7 +2750,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
@@ -2678,7 +2800,7 @@
         <v>2.95</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
@@ -2728,7 +2850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
@@ -2783,7 +2905,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3B6A6AE-C340-4557-B533-E34DE142DC24}">
   <dimension ref="A1:P23"/>
   <sheetViews>
@@ -2791,9 +2913,9 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2843,7 +2965,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2893,7 +3015,7 @@
         <v>5.99</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -2943,7 +3065,7 @@
         <v>1.47</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -2993,7 +3115,7 @@
         <v>5.08</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -3043,7 +3165,7 @@
         <v>7.38</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -3093,7 +3215,7 @@
         <v>3.14</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -3143,7 +3265,7 @@
         <v>6.22</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -3193,7 +3315,7 @@
         <v>2.41</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -3243,7 +3365,7 @@
         <v>4.17</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -3293,7 +3415,7 @@
         <v>8.26</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -3343,7 +3465,7 @@
         <v>8.8800000000000008</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -3393,7 +3515,7 @@
         <v>2.14</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -3443,7 +3565,7 @@
         <v>4.1100000000000003</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -3493,7 +3615,7 @@
         <v>5.88</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -3543,7 +3665,7 @@
         <v>4.47</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -3593,7 +3715,7 @@
         <v>6.99</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -3643,7 +3765,7 @@
         <v>7.78</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -3693,7 +3815,7 @@
         <v>5.03</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -3743,7 +3865,7 @@
         <v>5.82</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
@@ -3793,7 +3915,7 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
@@ -3843,7 +3965,7 @@
         <v>3.69</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
@@ -3893,7 +4015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
